--- a/medicine/Mort/Histoire_de_ma_mort/Histoire_de_ma_mort.xlsx
+++ b/medicine/Mort/Histoire_de_ma_mort/Histoire_de_ma_mort.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Historia de la meva mort est un film espagnol en catalan d'Albert Serra sorti en 2013.
 Présenté en compétition au Festival international du film de Locarno 2013, il remporte le Léopard d'or, la récompense suprême du festival.
@@ -512,9 +524,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le film est fondamentalement une revisitation du mythe vampirique de Dracula, mettant en scène le célèbre aventurier et séducteur vénitien Giacomo Casanova, transfiguré en vampire immortel dont les aventures ont pour toile de fond une Europe perturbée par la transition turbulente de l'âge moderne de l'Ancien Régime et du rationalisme des Lumières à l'âge contemporain du romantisme et des changements sociaux radicaux qui ont suivi la Révolution française et les guerres napoléoniennes (le titre du film lui-même joue d'ailleurs sur celui des célèbres mémoires du Vénitien, Histoire de ma vie[1],[2]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est fondamentalement une revisitation du mythe vampirique de Dracula, mettant en scène le célèbre aventurier et séducteur vénitien Giacomo Casanova, transfiguré en vampire immortel dont les aventures ont pour toile de fond une Europe perturbée par la transition turbulente de l'âge moderne de l'Ancien Régime et du rationalisme des Lumières à l'âge contemporain du romantisme et des changements sociaux radicaux qui ont suivi la Révolution française et les guerres napoléoniennes (le titre du film lui-même joue d'ailleurs sur celui des célèbres mémoires du Vénitien, Histoire de ma vie,).
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Histoire de ma mort
 Titre original : Historia de la meva mort
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vicenç Altaió : Giacomo Casanova
 Lluís Serrat : Pompeu
@@ -631,10 +649,49 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Récompenses
-Festival international du film de Locarno 2013 : Léopard d'or (sélection officielle)
-Nominations et sélections
-Festival international du film de Thessalonique 2013
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Festival international du film de Locarno 2013 : Léopard d'or (sélection officielle)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Histoire_de_ma_mort</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Histoire_de_ma_mort</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nominations et sélections</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival international du film de Thessalonique 2013
 Festival international du film de Toronto 2013 : sélection « Wavelengths »
 Festival international du film de Vancouver 2013</t>
         </is>
